--- a/docs/校招复习计划.xlsx
+++ b/docs/校招复习计划.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26101"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoxiaoran/GitHub/nowcoder/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="24720" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Leetcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +48,6 @@
   </si>
   <si>
     <t>Netty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛客剑指Offer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -164,13 +170,96 @@
     <t>校招投递（日期/公司）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p5-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p10-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p15-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p20-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis数据类型</t>
+    <rPh sb="5" eb="6">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lei'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis连接池</t>
+    <rPh sb="5" eb="6">
+      <t>lian'jie'chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主从复制</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'cong'fu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis的Demo</t>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jedis操作</t>
+    <rPh sb="5" eb="6">
+      <t>cao'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务、管道、持久化</t>
+    <rPh sb="0" eb="1">
+      <t>shi'wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guan'dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chi'jiu'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -290,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,9 +398,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -336,10 +422,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -435,7 +527,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -716,73 +808,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
     <col min="9" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="A2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="19">
-        <v>42551.453993055555</v>
-      </c>
-      <c r="L3" s="19"/>
+      <c r="K3" s="21">
+        <v>42568.453993055555</v>
+      </c>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C4" s="2"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
-        <v>17</v>
+      <c r="B5" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -807,28 +899,32 @@
       <c r="G7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>42552</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="5"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>42553</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -839,6 +935,9 @@
       <c r="A10" s="4">
         <v>42554</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6"/>
@@ -848,16 +947,22 @@
       <c r="A11" s="4">
         <v>42555</v>
       </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="H11" s="17"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>42556</v>
       </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
@@ -865,6 +970,9 @@
       <c r="A13" s="4">
         <v>42557</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
@@ -872,6 +980,9 @@
       <c r="A14" s="4">
         <v>42558</v>
       </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
@@ -879,6 +990,9 @@
       <c r="A15" s="4">
         <v>42559</v>
       </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
@@ -886,6 +1000,9 @@
       <c r="A16" s="4">
         <v>42560</v>
       </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
@@ -893,7 +1010,9 @@
       <c r="A17" s="4">
         <v>42561</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
@@ -901,7 +1020,9 @@
       <c r="A18" s="4">
         <v>42562</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
@@ -909,7 +1030,9 @@
       <c r="A19" s="4">
         <v>42563</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
@@ -917,35 +1040,66 @@
       <c r="A20" s="4">
         <v>42564</v>
       </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
+      <c r="E20" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>42565</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>42566</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>42567</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>42568</v>
       </c>
+      <c r="B24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>42569</v>
       </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
@@ -1014,11 +1168,11 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
-      <c r="B39" s="10" t="s">
-        <v>21</v>
+      <c r="B39" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1032,14 +1186,14 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C43" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="C43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1061,68 +1215,68 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="4" width="45.625" customWidth="1"/>
-    <col min="5" max="5" width="34.75" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="20">
+      <c r="C3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="18">
         <v>42551.455740740741</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
